--- a/Model_Performance_Metrics.xlsx
+++ b/Model_Performance_Metrics.xlsx
@@ -458,49 +458,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>LinearRegression</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9454374557445756</v>
+        <v>0.9478565506220266</v>
       </c>
       <c r="C2" t="n">
-        <v>3.184411654791871</v>
+        <v>3.043227000979905</v>
       </c>
       <c r="D2" t="n">
-        <v>1.437999189225789</v>
+        <v>1.410465999018138</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Polynomial Regression (Degree 2)</t>
+          <t>PolynomialRegression</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9572664791967455</v>
+        <v>0.9079572258221134</v>
       </c>
       <c r="C3" t="n">
-        <v>2.494039153657059</v>
+        <v>5.371855122065707</v>
       </c>
       <c r="D3" t="n">
-        <v>1.182505743562317</v>
+        <v>1.70487235310206</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Artificial Neural Network (tensorflow.keras)</t>
+          <t>ANN_Model</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.874739221853664</v>
+        <v>0.8978806438301661</v>
       </c>
       <c r="C4" t="n">
-        <v>7.310544023574115</v>
+        <v>5.95995059256666</v>
       </c>
       <c r="D4" t="n">
-        <v>2.162079755342923</v>
+        <v>1.748695804889385</v>
       </c>
     </row>
     <row r="5">
@@ -510,45 +510,45 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9140264432793825</v>
+        <v>0.9208711902839579</v>
       </c>
       <c r="C5" t="n">
-        <v>5.017639843615366</v>
+        <v>4.618162648537449</v>
       </c>
       <c r="D5" t="n">
-        <v>1.727950292307683</v>
+        <v>1.663887465384601</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Gradient Boosting</t>
+          <t>Gradient Boosting Model</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9318444256145634</v>
+        <v>0.9151698596007023</v>
       </c>
       <c r="C6" t="n">
-        <v>3.977736162668802</v>
+        <v>4.95090710030991</v>
       </c>
       <c r="D6" t="n">
-        <v>1.492096465241962</v>
+        <v>1.661658215954099</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PyTorch Neural Network</t>
+          <t>Neural Network PyTorch</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.308332536421843</v>
+        <v>0.8684886615016156</v>
       </c>
       <c r="C7" t="n">
-        <v>251.4454650878906</v>
+        <v>7.675342943889564</v>
       </c>
       <c r="D7" t="n">
-        <v>12.71731758117676</v>
+        <v>2.205908484825721</v>
       </c>
     </row>
   </sheetData>

--- a/Model_Performance_Metrics.xlsx
+++ b/Model_Performance_Metrics.xlsx
@@ -1,37 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>R^2</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>LinearRegression</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +69,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,138 +385,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>R^2</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>MSE</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>MAE</t>
-        </is>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>LinearRegression</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9478565506220266</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3.043227000979905</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.410465999018138</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>PolynomialRegression</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9079572258221134</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5.371855122065707</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.70487235310206</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ANN_Model</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.8978806438301661</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5.95995059256666</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.748695804889385</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9208711902839579</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4.618162648537449</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.663887465384601</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Gradient Boosting Model</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9151698596007023</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4.95090710030991</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.661658215954099</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Neural Network PyTorch</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.8684886615016156</v>
-      </c>
-      <c r="C7" t="n">
-        <v>7.675342943889564</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.205908484825721</v>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0.887</v>
+      </c>
+      <c r="C2">
+        <v>10.648</v>
+      </c>
+      <c r="D2">
+        <v>2.803</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>